--- a/Prompting Techniques.xlsx
+++ b/Prompting Techniques.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavankumar/Projects/Langchain-Llamaindex-integration-with-Gemeni-API/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB0F06D1-4F14-2A49-A0EC-010BC8F5D1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B51883-E2F6-8242-98E2-5AE7ACAF18E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="27040" windowHeight="16980" activeTab="1" xr2:uid="{D5B1E007-8B9B-3543-86DA-98A6E402ED6A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="27040" windowHeight="16980" activeTab="2" xr2:uid="{D5B1E007-8B9B-3543-86DA-98A6E402ED6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$28</definedName>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="356">
   <si>
     <t>Prompting Technique</t>
   </si>
@@ -525,177 +527,105 @@
     <t>- Requires additional setup for graph integration.</t>
   </si>
   <si>
-    <t>- May be complex for simple use cases.</t>
-  </si>
-  <si>
     <t>Use LangChain for complex, structured reasoning tasks requiring graph-based integration. Use Llama for simpler tasks.</t>
   </si>
   <si>
     <t>- May require complex setup.</t>
   </si>
   <si>
-    <t>- Less intuitive without dedicated support for trees.</t>
-  </si>
-  <si>
     <t>Use LangChain for hierarchical reasoning tasks. Use Llama for general text generation.</t>
   </si>
   <si>
     <t>- Structured verification through graphs.</t>
   </si>
   <si>
-    <t>- Allows for comprehensive verification of facts and relationships.</t>
-  </si>
-  <si>
     <t>- Complex setup required.</t>
   </si>
   <si>
-    <t>- Less straightforward for straightforward tasks.</t>
-  </si>
-  <si>
     <t>Use LangChain for verification tasks requiring structured approaches. Use Llama for simpler or unstructured tasks.</t>
   </si>
   <si>
     <t>- Provides structured, step-by-step reasoning.</t>
   </si>
   <si>
-    <t>- Useful for complex problem-solving.</t>
-  </si>
-  <si>
     <t>- Requires careful setup to ensure logical flow.</t>
   </si>
   <si>
-    <t>- May be overkill for simpler tasks.</t>
-  </si>
-  <si>
     <t>Use LangChain for complex, multi-step reasoning. Use Llama for straightforward reasoning tasks.</t>
   </si>
   <si>
     <t>- Integrates multiple thought processes effectively.</t>
   </si>
   <si>
-    <t>- Encourages comprehensive understanding.</t>
-  </si>
-  <si>
     <t>- May require complex setups for integration.</t>
   </si>
   <si>
-    <t>- Potentially overcomplicated for simple tasks.</t>
-  </si>
-  <si>
     <t>Use LangChain for comprehensive integration of multiple thought processes. Use Llama for generating varied perspectives.</t>
   </si>
   <si>
     <t>- Enhances reasoning with domain-specific knowledge.</t>
   </si>
   <si>
-    <t>- Effective for specialized tasks.</t>
-  </si>
-  <si>
     <t>- May require extensive setup.</t>
   </si>
   <si>
-    <t>- Limited to available knowledge within the model.</t>
-  </si>
-  <si>
     <t>Use LangChain for tasks requiring domain-specific knowledge. Use Llama for general text generation.</t>
   </si>
   <si>
     <t>- Ensures logical consistency throughout the reasoning.</t>
   </si>
   <si>
-    <t>- Effective for complex reasoning tasks.</t>
-  </si>
-  <si>
     <t>- Requires careful configuration.</t>
   </si>
   <si>
-    <t>- Might be complex for simple tasks.</t>
-  </si>
-  <si>
     <t>Use LangChain for tasks requiring rigorous consistency checks. Use Llama for less demanding consistency needs.</t>
   </si>
   <si>
     <t>- Enhances understanding through self-generated questions.</t>
   </si>
   <si>
-    <t>- Effective for deeper analysis.</t>
-  </si>
-  <si>
     <t>- May require advanced setup.</t>
   </si>
   <si>
-    <t>- Limited by Llama’s question generation capabilities.</t>
-  </si>
-  <si>
     <t>Use LangChain for advanced self-questioning techniques. Use Llama for basic question generation.</t>
   </si>
   <si>
     <t>- Facilitates detailed self-evaluation and refinement.</t>
   </si>
   <si>
-    <t>- Enhances accuracy and quality.</t>
-  </si>
-  <si>
     <t>- May require complex configurations.</t>
   </si>
   <si>
-    <t>- Less effective without additional tools.</t>
-  </si>
-  <si>
     <t>Use LangChain for detailed critique and refinement tasks. Use Llama for initial response generation.</t>
   </si>
   <si>
     <t>- Allows for iterative improvements based on feedback.</t>
   </si>
   <si>
-    <t>- Enhances response quality over time.</t>
-  </si>
-  <si>
     <t>- Requires careful setup for iterative processes.</t>
   </si>
   <si>
-    <t>- Less intuitive for straightforward tasks.</t>
-  </si>
-  <si>
     <t>Use LangChain for iterative refinement tasks. Use Llama for initial drafts or simple refinements.</t>
   </si>
   <si>
     <t>- Facilitates continuous improvement and adaptation.</t>
   </si>
   <si>
-    <t>- Ensures high-quality output over time.</t>
-  </si>
-  <si>
-    <t>- Less suitable for tasks without feedback mechanisms.</t>
-  </si>
-  <si>
     <t>Use LangChain for tasks requiring ongoing refinement. Use Llama for initial content generation.</t>
   </si>
   <si>
     <t>- Enables iterative improvements through multiple rounds of prompting.</t>
   </si>
   <si>
-    <t>- Customizable to specific needs.</t>
-  </si>
-  <si>
-    <t>- Less flexible without advanced configurations.</t>
-  </si>
-  <si>
     <t>Use LangChain for complex iterative tasks. Use Llama for simpler iterative processes.</t>
   </si>
   <si>
     <t>- Enhances understanding through analogies.</t>
   </si>
   <si>
-    <t>- Provides a structured approach to generating comparisons.</t>
-  </si>
-  <si>
     <t>- Requires careful setup for effective use.</t>
   </si>
   <si>
-    <t>- Llama’s analogies may be less tailored.</t>
-  </si>
-  <si>
     <t>Use LangChain for tasks requiring structured analogical reasoning. Use Llama for general analogy generation.</t>
   </si>
   <si>
@@ -705,128 +635,488 @@
     <t>- Requires setup for effective examples.</t>
   </si>
   <si>
-    <t>- Less flexible for non-standard inputs.</t>
-  </si>
-  <si>
     <t>Use LangChain for tasks requiring specific input-output guidance. Use Llama for more general examples.</t>
   </si>
   <si>
     <t>- Builds complexity gradually for better understanding.</t>
   </si>
   <si>
-    <t>- Effective for detailed development.</t>
-  </si>
-  <si>
     <t>- May require complex prompt adjustments.</t>
   </si>
   <si>
-    <t>- Less intuitive without structured support.</t>
-  </si>
-  <si>
     <t>Use LangChain for complex, progressive tasks. Use Llama for simpler tasks with incremental details.</t>
   </si>
   <si>
     <t>- Ensures structured problem-solving through planning.</t>
   </si>
   <si>
-    <t>- Effective for complex tasks requiring detailed steps.</t>
-  </si>
-  <si>
     <t>- Requires detailed setup.</t>
   </si>
   <si>
-    <t>- Less suitable for straightforward tasks without planning.</t>
-  </si>
-  <si>
     <t>Use LangChain for tasks requiring detailed planning. Use Llama for straightforward problem-solving.</t>
   </si>
   <si>
     <t>- Provides structured guidance through sequential steps.</t>
   </si>
   <si>
-    <t>- Effective for building coherent outputs.</t>
-  </si>
-  <si>
     <t>- Requires careful setup.</t>
   </si>
   <si>
-    <t>- Less flexible for non-linear tasks.</t>
-  </si>
-  <si>
     <t>Use LangChain for complex sequential tasks. Use Llama for simpler sequences.</t>
   </si>
   <si>
     <t>- Enhances accuracy through reassessment.</t>
   </si>
   <si>
-    <t>- Helps in refining outputs based on previous steps.</t>
-  </si>
-  <si>
     <t>- Requires additional setup for step-back processes.</t>
   </si>
   <si>
-    <t>- Less straightforward without specialized support.</t>
-  </si>
-  <si>
     <t>Use LangChain for tasks requiring iterative reassessment. Use Llama for initial content generation.</t>
   </si>
   <si>
     <t>- Enhances consistency through past interactions.</t>
   </si>
   <si>
-    <t>- Improves overall coherence.</t>
-  </si>
-  <si>
-    <t>- Less intuitive without dedicated memory support.</t>
-  </si>
-  <si>
     <t>Use LangChain for tasks requiring memory and consistency. Use Llama for general text generation.</t>
   </si>
   <si>
     <t>- Ensures detailed and concise information.</t>
   </si>
   <si>
-    <t>- Effective for dense, information-rich summaries.</t>
-  </si>
-  <si>
     <t>- May require specific configurations.</t>
   </si>
   <si>
-    <t>- Llama’s summaries may lack detail.</t>
-  </si>
-  <si>
     <t>Use LangChain for creating detailed, information-rich summaries. Use Llama for general summarization.</t>
   </si>
   <si>
     <t>- Provides high customization and flexibility.</t>
   </si>
   <si>
-    <t>- Effective for complex prompt engineering.</t>
-  </si>
-  <si>
     <t>- Requires programming knowledge.</t>
   </si>
   <si>
-    <t>- More complex setup.</t>
-  </si>
-  <si>
     <t>Use LangChain for highly customized prompt programming. Use Llama for straightforward prompts.</t>
   </si>
   <si>
     <t>Allows complex reasoning and visual representation.</t>
   </si>
   <si>
-    <t>Provides a clear structure for understanding concepts.</t>
-  </si>
-  <si>
     <t>Effective for hierarchical or nested reasoning. Provides a clear structure for understanding concepts.</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Few-Shot Prompting</t>
+  </si>
+  <si>
+    <t>Providing the model with a few examples (input-output pairs) before asking it to complete a task.</t>
+  </si>
+  <si>
+    <t>Translate English to French: English: How are you? French: Comment ça va ? English: Good morning. French: Bonjour. English: What's your name? French:</t>
+  </si>
+  <si>
+    <t>Zero-Shot Prompting</t>
+  </si>
+  <si>
+    <t>Asking the model to perform a task without providing any examples.</t>
+  </si>
+  <si>
+    <t>Summarize the following text: [Text]</t>
+  </si>
+  <si>
+    <t>Chain-of-Thought Prompting</t>
+  </si>
+  <si>
+    <t>Encouraging the model to explain its reasoning step-by-step before providing the final answer.</t>
+  </si>
+  <si>
+    <t>Q: If it’s raining, then the ground is wet. It’s raining. What can we infer? A: Since it’s raining, the ground must be wet.</t>
+  </si>
+  <si>
+    <t>Instruction-Based Prompting</t>
+  </si>
+  <si>
+    <t>Giving explicit instructions to the model on how to perform a task, often with a clear format or guideline.</t>
+  </si>
+  <si>
+    <t>Write a brief summary of the following article. Make sure to include the main points and conclusion.</t>
+  </si>
+  <si>
+    <t>Persona-Based Prompting</t>
+  </si>
+  <si>
+    <t>Defining a persona or specific character for the model to role-play while responding.</t>
+  </si>
+  <si>
+    <t>You are a friendly travel guide. Suggest a few tourist spots in Paris.</t>
+  </si>
+  <si>
+    <t>Contextual Prompting</t>
+  </si>
+  <si>
+    <t>Providing relevant context before asking the model to generate a response.</t>
+  </si>
+  <si>
+    <t>Context: The project deadline is approaching, and the team is behind schedule. Task: Write an email to the team to motivate them to work harder.</t>
+  </si>
+  <si>
+    <t>Role-Playing Prompting</t>
+  </si>
+  <si>
+    <t>Asking the model to take on a specific role (e.g., teacher, doctor) and respond as that role would.</t>
+  </si>
+  <si>
+    <t>You are a software engineer. Explain what a neural network is to someone new to programming.</t>
+  </si>
+  <si>
+    <t>Comparison Prompting</t>
+  </si>
+  <si>
+    <t>Requesting the model to compare two or more items or concepts, providing a detailed comparison or differentiation.</t>
+  </si>
+  <si>
+    <t>Compare Python and JavaScript in terms of their use cases and syntax.</t>
+  </si>
+  <si>
+    <t>Multi-Turn Prompting</t>
+  </si>
+  <si>
+    <t>Engaging the model in a dialogue or series of prompts to carry out a conversation or solve a problem over multiple turns.</t>
+  </si>
+  <si>
+    <t>Q: What is machine learning? A: Machine learning is a subset of AI that allows systems to learn and make decisions based on data. Q: Can you give an example?</t>
+  </si>
+  <si>
+    <t>Refinement Prompting</t>
+  </si>
+  <si>
+    <t>Asking the model to refine or improve its previous response, leading to more polished and accurate outputs.</t>
+  </si>
+  <si>
+    <t>Initial Prompt: Write a short story about a cat. Refinement Prompt: Make the story more engaging by adding a twist.</t>
+  </si>
+  <si>
+    <t>Technique</t>
+  </si>
+  <si>
+    <t>Provides tools for integrating knowledge graphs and building complex reasoning structures in prompts.</t>
+  </si>
+  <si>
+    <t>Can generate text but lacks inherent support for graph-based reasoning or structured graph integrations.</t>
+  </si>
+  <si>
+    <t>Allows for complex reasoning and visual representation.</t>
+  </si>
+  <si>
+    <t>Requires additional setup for graph integration.</t>
+  </si>
+  <si>
+    <t>Can create tree structures for reasoning, leveraging its graph-building capabilities.</t>
+  </si>
+  <si>
+    <t>Generates text but lacks built-in support for tree structures or hierarchical reasoning.</t>
+  </si>
+  <si>
+    <t>May require complex setup.</t>
+  </si>
+  <si>
+    <t>Utilizes external tools to verify information through structured graphs.</t>
+  </si>
+  <si>
+    <t>Does not natively support graph-based verification processes.</t>
+  </si>
+  <si>
+    <t>Structured verification through graphs. Comprehensive fact and relationship verification.</t>
+  </si>
+  <si>
+    <t>Complex setup required.</t>
+  </si>
+  <si>
+    <t>Can create complex chains of reasoning, integrating various information sources.</t>
+  </si>
+  <si>
+    <t>Can perform chain-of-thought reasoning but might not be as structured or integrated as LangChain.</t>
+  </si>
+  <si>
+    <t>Provides structured, step-by-step reasoning. Useful for complex problem-solving.</t>
+  </si>
+  <si>
+    <t>Requires careful setup to ensure logical flow.</t>
+  </si>
+  <si>
+    <t>Allows combining multiple thought processes but may require custom configurations.</t>
+  </si>
+  <si>
+    <t>Can generate multiple perspectives but lacks inherent integration into a comprehensive view.</t>
+  </si>
+  <si>
+    <t>Integrates multiple thought processes effectively. Encourages comprehensive understanding.</t>
+  </si>
+  <si>
+    <t>May require complex setups for integration.</t>
+  </si>
+  <si>
+    <t>Supports knowledge-driven prompts by integrating domain-specific knowledge sources.</t>
+  </si>
+  <si>
+    <t>Generates text based on its training data but lacks native integration of domain-specific knowledge.</t>
+  </si>
+  <si>
+    <t>Enhances reasoning with domain-specific knowledge. Effective for specialized tasks.</t>
+  </si>
+  <si>
+    <t>May require extensive setup.</t>
+  </si>
+  <si>
+    <t>Can be configured to ensure self-consistency within complex chains of reasoning.</t>
+  </si>
+  <si>
+    <t>Generates text but may not inherently check for internal consistency throughout the reasoning process.</t>
+  </si>
+  <si>
+    <t>Ensures logical consistency throughout the reasoning. Effective for complex reasoning tasks.</t>
+  </si>
+  <si>
+    <t>Requires careful configuration.</t>
+  </si>
+  <si>
+    <t>Supports self-questioning techniques through advanced prompt engineering and context management.</t>
+  </si>
+  <si>
+    <t>Can generate questions but lacks sophisticated context management for self-questioning.</t>
+  </si>
+  <si>
+    <t>Enhances understanding through self-generated questions. Effective for deeper analysis.</t>
+  </si>
+  <si>
+    <t>May require advanced setup.</t>
+  </si>
+  <si>
+    <t>Allows for iterative refinement and critique of responses through custom prompt setups.</t>
+  </si>
+  <si>
+    <t>Generates text but lacks built-in mechanisms for self-critiquing responses.</t>
+  </si>
+  <si>
+    <t>Facilitates detailed self-evaluation and refinement. Enhances accuracy and quality.</t>
+  </si>
+  <si>
+    <t>May require complex configurations.</t>
+  </si>
+  <si>
+    <t>Supports iterative refinement through advanced prompt configurations and feedback mechanisms.</t>
+  </si>
+  <si>
+    <t>Generates text but may not have built-in iterative refinement capabilities.</t>
+  </si>
+  <si>
+    <t>Allows for iterative improvements based on feedback. Enhances response quality over time.</t>
+  </si>
+  <si>
+    <t>Requires careful setup for iterative processes.</t>
+  </si>
+  <si>
+    <t>Supports continuous improvement through sophisticated feedback loops and prompt adjustments.</t>
+  </si>
+  <si>
+    <t>Can generate initial responses but may not support continuous refinement effectively.</t>
+  </si>
+  <si>
+    <t>Facilitates continuous improvement and adaptation. Ensures high-quality output over time.</t>
+  </si>
+  <si>
+    <t>Supports iterative prompting with customizable workflows and prompt adjustments.</t>
+  </si>
+  <si>
+    <t>Can perform iterative prompting but lacks built-in support for complex iterative workflows.</t>
+  </si>
+  <si>
+    <t>Enables iterative improvements through multiple rounds of prompting. Customizable to specific needs.</t>
+  </si>
+  <si>
+    <t>Can integrate analogies effectively through custom prompts and examples.</t>
+  </si>
+  <si>
+    <t>Can generate analogies but may not integrate them as effectively as LangChain.</t>
+  </si>
+  <si>
+    <t>Enhances understanding through analogies. Provides a structured approach to generating comparisons.</t>
+  </si>
+  <si>
+    <t>Requires careful setup for effective use.</t>
+  </si>
+  <si>
+    <t>Supports specific input-output examples and integrates them into the prompting process.</t>
+  </si>
+  <si>
+    <t>Can generate responses based on input-output examples but may lack sophisticated integration.</t>
+  </si>
+  <si>
+    <t>Clear guidance for generating accurate responses. Provides a structured approach to generating examples.</t>
+  </si>
+  <si>
+    <t>Requires setup for effective examples.</t>
+  </si>
+  <si>
+    <t>Facilitates gradual complexity through step-by-step prompting adjustments.</t>
+  </si>
+  <si>
+    <t>Can generate responses but may not inherently support gradual complexity increases.</t>
+  </si>
+  <si>
+    <t>Builds complexity gradually for better understanding. Effective for detailed development.</t>
+  </si>
+  <si>
+    <t>May require complex prompt adjustments.</t>
+  </si>
+  <si>
+    <t>Supports planning and execution through detailed prompt configurations.</t>
+  </si>
+  <si>
+    <t>Can generate text but lacks built-in planning mechanisms.</t>
+  </si>
+  <si>
+    <t>Ensures structured problem-solving through planning. Effective for complex tasks requiring detailed steps.</t>
+  </si>
+  <si>
+    <t>Requires detailed setup.</t>
+  </si>
+  <si>
+    <t>Supports sequential prompts to guide step-by-step processes.</t>
+  </si>
+  <si>
+    <t>Can handle sequential prompts but may not have built-in support for complex sequences.</t>
+  </si>
+  <si>
+    <t>Provides structured guidance through sequential steps. Effective for building coherent outputs.</t>
+  </si>
+  <si>
+    <t>Requires careful setup.</t>
+  </si>
+  <si>
+    <t>Can be configured to allow reassessment of previous steps for improved accuracy.</t>
+  </si>
+  <si>
+    <t>Generates text but does not inherently support step-back reassessment.</t>
+  </si>
+  <si>
+    <t>Enhances accuracy through reassessment. Helps refine outputs based on previous steps.</t>
+  </si>
+  <si>
+    <t>Requires additional setup for step-back processes.</t>
+  </si>
+  <si>
+    <t>Supports leveraging past interactions and memory structures effectively.</t>
+  </si>
+  <si>
+    <t>Generates text but may lack sophisticated memory integration.</t>
+  </si>
+  <si>
+    <t>Enhances consistency through past interactions. Improves overall coherence.</t>
+  </si>
+  <si>
+    <t>Focuses on creating dense summaries with information-rich prompts.</t>
+  </si>
+  <si>
+    <t>Can generate summaries but may not focus on density as effectively.</t>
+  </si>
+  <si>
+    <t>Ensures detailed and concise information. Effective for dense, information-rich summaries.</t>
+  </si>
+  <si>
+    <t>May require specific configurations.</t>
+  </si>
+  <si>
+    <t>Offers advanced prompt programming capabilities for custom prompt creation.</t>
+  </si>
+  <si>
+    <t>Generates text based on predefined prompts but lacks extensive programming support.</t>
+  </si>
+  <si>
+    <t>Provides high customization and flexibility. Effective for complex prompt engineering.</t>
+  </si>
+  <si>
+    <t>Requires programming knowledge.</t>
+  </si>
+  <si>
+    <t>Prompt Engineering</t>
+  </si>
+  <si>
+    <t>Focuses on designing and optimizing prompts for specific tasks and outcomes.</t>
+  </si>
+  <si>
+    <t>Generates responses based on provided prompts but may not have advanced engineering tools.</t>
+  </si>
+  <si>
+    <t>Enables targeted and effective prompt design. Helps in tailoring prompts to specific needs.</t>
+  </si>
+  <si>
+    <t>Limited by the inherent capabilities of the text generation model.</t>
+  </si>
+  <si>
+    <t>Use LangChain for advanced prompt engineering. Use Llama for general prompt applications.</t>
+  </si>
+  <si>
+    <t>Dialog-Based Prompting</t>
+  </si>
+  <si>
+    <t>Supports creating dialogues and conversational prompts for interactive scenarios.</t>
+  </si>
+  <si>
+    <t>Can generate conversational responses but may lack advanced dialogue management features.</t>
+  </si>
+  <si>
+    <t>Facilitates interactive and engaging dialogues. Enhances user interaction through conversational prompts.</t>
+  </si>
+  <si>
+    <t>May require complex setups for effective dialogue management.</t>
+  </si>
+  <si>
+    <t>Use LangChain for interactive and complex dialogue scenarios. Use Llama for general conversational tasks.</t>
+  </si>
+  <si>
+    <t>Retrieval-Augmented Prompting</t>
+  </si>
+  <si>
+    <t>Integrates external information retrieval to enhance prompt responses.</t>
+  </si>
+  <si>
+    <t>Can generate responses but may not integrate external retrieval effectively.</t>
+  </si>
+  <si>
+    <t>Enriches responses with external information. Improves relevance and accuracy through information retrieval.</t>
+  </si>
+  <si>
+    <t>Requires integration with external retrieval systems.</t>
+  </si>
+  <si>
+    <t>Use LangChain for tasks requiring external information integration. Use Llama for standalone responses.</t>
+  </si>
+  <si>
+    <t>Multi-Modal Prompting</t>
+  </si>
+  <si>
+    <t>Supports combining text prompts with other modalities (e.g., images, audio).</t>
+  </si>
+  <si>
+    <t>Primarily focuses on text generation without native multi-modal integration.</t>
+  </si>
+  <si>
+    <t>Enhances prompt effectiveness by combining different modalities. Provides richer input for generating responses.</t>
+  </si>
+  <si>
+    <t>Requires setup for integrating multiple modalities.</t>
+  </si>
+  <si>
+    <t>Use LangChain for multi-modal tasks. Use Llama for text-only scenarios.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -864,20 +1154,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="36"/>
       <color theme="1"/>
@@ -885,8 +1161,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -943,12 +1241,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -971,11 +1305,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -990,11 +1350,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1003,24 +1362,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1086,6 +1433,67 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1404,7 +1812,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView zoomScale="56" zoomScaleNormal="48" zoomScaleSheetLayoutView="57" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D28"/>
+      <selection activeCell="A2" sqref="A2:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1432,380 +1840,380 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="22" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="22" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="22" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="22" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="22" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="24" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="22" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="24" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="22" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="24" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="22" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="24" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="26" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="26" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="26" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="22" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="28" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="22" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="28" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="22" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="28" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="22" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="22" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="22" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="28" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="22" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="28" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="22" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="28" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="22" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="28" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="22" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="28" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="22" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="30" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="22" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="30" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="22" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="30" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="22" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="30" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="22" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="32" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="22" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="32" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1820,713 +2228,1162 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FD794B-EEA1-544D-95F3-7060AC20C38F}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:D29"/>
+    <sheetView zoomScale="50" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="95.6640625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="99" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="95.83203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="84.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="142.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="95.6640625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="99" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="95.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="142.5" style="21" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="44" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="44" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" ht="44" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="F4" s="9" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="22" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" s="6" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" ht="22" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="F4" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="E6" s="14" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="44" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F5" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="44" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="6" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="E6" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="44" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>124</v>
+      </c>
       <c r="D7" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="F7" s="11"/>
+        <v>173</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="44" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="22" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="E9" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="44" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="44" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="44" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="44" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="44" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" spans="1:6" ht="44" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="22" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="1:6" ht="44" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="22" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="F13" s="16"/>
+      <c r="F13" s="16" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="44" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="22" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F15" s="16"/>
+      <c r="A14" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="44" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="44" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>195</v>
+      <c r="A16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="22" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="F17" s="16"/>
+      <c r="A17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="44" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="22" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
+      <c r="A18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="44" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>148</v>
+      </c>
       <c r="D19" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="1:6" ht="44" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>205</v>
+        <v>207</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="22" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="22" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="F21" s="16"/>
+      <c r="A21" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="44" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="22" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="F23" s="16"/>
-    </row>
-    <row r="24" spans="1:6" ht="44" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="22" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="F25" s="16"/>
-    </row>
-    <row r="26" spans="1:6" ht="44" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="E26" s="21" t="s">
+      <c r="A22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="F26" s="21" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="22" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="E27" s="16" t="s">
+      <c r="F22" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="F27" s="16"/>
-    </row>
-    <row r="28" spans="1:6" ht="44" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="22" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="F29" s="16"/>
-    </row>
-    <row r="30" spans="1:6" ht="44" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="22" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="F31" s="16"/>
-    </row>
-    <row r="32" spans="1:6" ht="22" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="22" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="F33" s="16"/>
-    </row>
-    <row r="34" spans="1:6" ht="44" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="22" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="F35" s="16"/>
-    </row>
-    <row r="36" spans="1:6" ht="44" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="22" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="F37" s="16"/>
-    </row>
-    <row r="38" spans="1:6" ht="22" x14ac:dyDescent="0.2">
-      <c r="A38" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="22" x14ac:dyDescent="0.2">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="F39" s="16"/>
-    </row>
-    <row r="40" spans="1:6" ht="22" x14ac:dyDescent="0.2">
-      <c r="A40" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="22" x14ac:dyDescent="0.2">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="F41" s="16"/>
-    </row>
-    <row r="42" spans="1:6" ht="44" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="22" x14ac:dyDescent="0.2">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="F43" s="16"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8386AA-0459-E049-9DE7-240266A3A3A2}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.1640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="102.6640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="136.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="47" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="51" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="54" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="51" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="54" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="51" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="54" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="51" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="49" t="s">
+        <v>239</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="54" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="51" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="54" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="48"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C2C790B-7863-2640-B0C0-3F98C9D2F066}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.83203125" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.33203125" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="88.83203125" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.5" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.1640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="104.6640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="44" customFormat="1" ht="27" x14ac:dyDescent="0.2">
+      <c r="A1" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="41" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="41" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="41" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="40" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="40" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="40" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="40" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="40" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="40" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="40" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="40" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="40" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="40" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="40" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="40" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>305</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>306</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>308</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="40" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>310</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="40" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>316</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="40" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="40" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="40" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="40" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>331</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="40" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="39" t="s">
+        <v>332</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>334</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>335</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="40" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="39" t="s">
+        <v>338</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>342</v>
+      </c>
+      <c r="F24" s="39" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="40" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="39" t="s">
+        <v>344</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>345</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>346</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>347</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="40" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>353</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="F26" s="39" t="s">
+        <v>355</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;C&amp;"Calibri (Body),Regular"&amp;20Prompt Techniques
+</oddHeader>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Prompting Techniques.xlsx
+++ b/Prompting Techniques.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavankumar/Projects/Langchain-Llamaindex-integration-with-Gemeni-API/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08511308-C12D-3C45-8E4E-4E138535ABE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30797E4-913D-184F-B029-DF756C493387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="27040" windowHeight="16980" activeTab="1" xr2:uid="{D5B1E007-8B9B-3543-86DA-98A6E402ED6A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="6" r:id="rId2"/>
+    <sheet name="Prompt Techniques" sheetId="6" r:id="rId1"/>
+    <sheet name="Extra Prompt Techniques" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -925,8 +925,8 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -936,7 +936,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1155,155 +1155,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8386AA-0459-E049-9DE7-240266A3A3A2}">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="34.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="102.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="136.5" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133D222A-C722-C546-BD9F-2DB1883B58B7}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="44" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView zoomScale="44" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -1733,7 +1588,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="44" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>5</v>
       </c>
@@ -1916,6 +1771,151 @@
       <c r="G26" s="38" t="s">
         <v>185</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8386AA-0459-E049-9DE7-240266A3A3A2}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="102.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="136.5" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Prompting Techniques.xlsx
+++ b/Prompting Techniques.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="187">
   <si>
     <t>Technique</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Key Observations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
   <si>
     <t>Graph of Thought</t>
@@ -580,7 +583,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -599,6 +602,12 @@
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Gill Sans MT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -674,7 +683,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -743,6 +752,13 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -836,7 +852,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -862,104 +878,110 @@
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="5" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="5" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="5" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="6" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="6" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="6" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="6" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="6" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="6" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="6" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="10" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="10" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="6" applyFont="1" fillId="10" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="10" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="10" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="6" applyFont="1" fillId="10" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="5" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="5" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="5" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="10" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="10" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="10" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="10" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="10" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="5" applyFont="1" fillId="10" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1269,17 +1291,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="40" width="51.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="40" width="67.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="40" width="66.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="40" width="66.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="40" width="76.7192857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="41" width="55.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="40" width="55.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="41" width="51.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="41" width="67.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="41" width="66.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="41" width="66.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="41" width="76.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="42" width="55.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="41" width="55.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="43" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="30">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="30" customFormat="1" s="4">
       <c r="A1" s="14" t="s">
         <v>33</v>
       </c>
@@ -1301,605 +1323,607 @@
       <c r="G1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="10"/>
+      <c r="H1" s="18" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="42.75" customFormat="1" s="4">
-      <c r="A2" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="19">
+      <c r="E2" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="20">
         <v>8</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>44</v>
+      <c r="G2" s="21" t="s">
+        <v>45</v>
       </c>
       <c r="H2" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="42.75" customFormat="1" s="4">
-      <c r="A3" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="C3" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="D3" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="22">
+      <c r="E3" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="23">
         <v>7</v>
       </c>
-      <c r="G3" s="23" t="s">
-        <v>50</v>
+      <c r="G3" s="24" t="s">
+        <v>51</v>
       </c>
       <c r="H3" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="42.75" customFormat="1" s="4">
-      <c r="A4" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="C4" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="22">
+      <c r="E4" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="23">
         <v>9</v>
       </c>
-      <c r="G4" s="23" t="s">
-        <v>56</v>
+      <c r="G4" s="24" t="s">
+        <v>57</v>
       </c>
       <c r="H4" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="42.75" customFormat="1" s="4">
-      <c r="A5" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="C5" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="D5" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="25">
+      <c r="E5" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="26">
         <v>8</v>
       </c>
-      <c r="G5" s="26" t="s">
-        <v>62</v>
+      <c r="G5" s="27" t="s">
+        <v>63</v>
       </c>
       <c r="H5" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="42.75" customFormat="1" s="4">
-      <c r="A6" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="C6" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="D6" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="25">
+      <c r="E6" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="26">
         <v>7</v>
       </c>
-      <c r="G6" s="26" t="s">
-        <v>68</v>
+      <c r="G6" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="H6" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="42.75" customFormat="1" s="4">
-      <c r="A7" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="B7" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="C7" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="D7" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="25">
+      <c r="E7" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="26">
         <v>9</v>
       </c>
-      <c r="G7" s="26" t="s">
-        <v>74</v>
+      <c r="G7" s="27" t="s">
+        <v>75</v>
       </c>
       <c r="H7" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="42.75" customFormat="1" s="4">
-      <c r="A8" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="B8" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="C8" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="D8" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="25">
+      <c r="E8" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="26">
         <v>8</v>
       </c>
-      <c r="G8" s="26" t="s">
-        <v>80</v>
+      <c r="G8" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="H8" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="42.75" customFormat="1" s="4">
-      <c r="A9" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="27" t="s">
+      <c r="A9" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="B9" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="C9" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="D9" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="28">
+      <c r="E9" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="29">
         <v>6</v>
       </c>
-      <c r="G9" s="29" t="s">
-        <v>86</v>
+      <c r="G9" s="30" t="s">
+        <v>87</v>
       </c>
       <c r="H9" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24.75" customFormat="1" s="4">
-      <c r="A10" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="27" t="s">
+      <c r="A10" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="B10" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="C10" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="D10" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="28">
+      <c r="E10" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="29">
         <v>7</v>
       </c>
-      <c r="G10" s="29" t="s">
-        <v>92</v>
+      <c r="G10" s="30" t="s">
+        <v>93</v>
       </c>
       <c r="H10" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="24.75" customFormat="1" s="4">
-      <c r="A11" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" s="27" t="s">
+      <c r="A11" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="B11" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="C11" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="D11" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="28">
+      <c r="E11" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="29">
         <v>9</v>
       </c>
-      <c r="G11" s="29" t="s">
-        <v>98</v>
+      <c r="G11" s="30" t="s">
+        <v>99</v>
       </c>
       <c r="H11" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="42.75" customFormat="1" s="4">
-      <c r="A12" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="27" t="s">
+      <c r="A12" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="B12" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="27" t="s">
+      <c r="C12" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="28">
+      <c r="D12" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="29">
         <v>8</v>
       </c>
-      <c r="G12" s="29" t="s">
-        <v>103</v>
+      <c r="G12" s="30" t="s">
+        <v>104</v>
       </c>
       <c r="H12" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="42.75" customFormat="1" s="4">
-      <c r="A13" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="30" t="s">
+      <c r="A13" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="B13" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="30" t="s">
+      <c r="C13" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="F13" s="31">
+      <c r="D13" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="32">
         <v>7</v>
       </c>
-      <c r="G13" s="32" t="s">
-        <v>108</v>
+      <c r="G13" s="33" t="s">
+        <v>109</v>
       </c>
       <c r="H13" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="42.75" customFormat="1" s="4">
-      <c r="A14" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" s="30" t="s">
+      <c r="A14" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="B14" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="D14" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="31">
+      <c r="E14" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="32">
         <v>6</v>
       </c>
-      <c r="G14" s="32" t="s">
-        <v>114</v>
+      <c r="G14" s="33" t="s">
+        <v>115</v>
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25" customFormat="1" s="4">
-      <c r="A15" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="30" t="s">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="42.75" customFormat="1" s="4">
+      <c r="A15" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="B15" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="C15" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="D15" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="F15" s="31">
+      <c r="E15" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="32">
         <v>8</v>
       </c>
-      <c r="G15" s="32" t="s">
-        <v>120</v>
+      <c r="G15" s="33" t="s">
+        <v>121</v>
       </c>
       <c r="H15" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25" customFormat="1" s="4">
-      <c r="A16" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16" s="30" t="s">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="42.75" customFormat="1" s="4">
+      <c r="A16" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="B16" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="C16" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="D16" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="F16" s="31">
+      <c r="E16" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="32">
         <v>7</v>
       </c>
-      <c r="G16" s="32" t="s">
-        <v>126</v>
+      <c r="G16" s="33" t="s">
+        <v>127</v>
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="30" t="s">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="42.75">
+      <c r="A17" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="B17" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="C17" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="D17" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="F17" s="31">
+      <c r="E17" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="32">
         <v>9</v>
       </c>
-      <c r="G17" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="H17" s="33"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25" customFormat="1" s="4">
-      <c r="A18" s="30" t="s">
+      <c r="G17" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="H17" s="34"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="42.75" customFormat="1" s="4">
+      <c r="A18" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="B18" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="C18" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="D18" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="31">
+      <c r="E18" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="32">
         <v>8</v>
       </c>
-      <c r="G18" s="32" t="s">
-        <v>138</v>
+      <c r="G18" s="33" t="s">
+        <v>139</v>
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25" customFormat="1" s="4">
-      <c r="A19" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="B19" s="30" t="s">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="42.75" customFormat="1" s="4">
+      <c r="A19" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="B19" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="C19" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="D19" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="F19" s="31">
+      <c r="E19" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="32">
         <v>6</v>
       </c>
-      <c r="G19" s="32" t="s">
-        <v>144</v>
+      <c r="G19" s="33" t="s">
+        <v>145</v>
       </c>
       <c r="H19" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25" customFormat="1" s="4">
-      <c r="A20" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="B20" s="30" t="s">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="42.75" customFormat="1" s="4">
+      <c r="A20" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="B20" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="D20" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="30" t="s">
+      <c r="C20" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="F20" s="31">
+      <c r="D20" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" s="32">
         <v>9</v>
       </c>
-      <c r="G20" s="32" t="s">
-        <v>149</v>
+      <c r="G20" s="33" t="s">
+        <v>150</v>
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25" customFormat="1" s="4">
-      <c r="A21" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="B21" s="34" t="s">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="42.75" customFormat="1" s="4">
+      <c r="A21" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="B21" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="C21" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="D21" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="F21" s="35">
+      <c r="E21" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" s="36">
         <v>8</v>
       </c>
-      <c r="G21" s="36" t="s">
-        <v>155</v>
+      <c r="G21" s="37" t="s">
+        <v>156</v>
       </c>
       <c r="H21" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="60" customFormat="1" s="4">
-      <c r="A22" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="B22" s="34" t="s">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="42.75" customFormat="1" s="4">
+      <c r="A22" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="B22" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="C22" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="D22" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="F22" s="35">
+      <c r="E22" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" s="36">
         <v>7</v>
       </c>
-      <c r="G22" s="36" t="s">
-        <v>161</v>
+      <c r="G22" s="37" t="s">
+        <v>162</v>
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="62" customFormat="1" s="4">
-      <c r="A23" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="B23" s="34" t="s">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="42.75" customFormat="1" s="4">
+      <c r="A23" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="B23" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="C23" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="D23" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="F23" s="35">
+      <c r="E23" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="F23" s="36">
         <v>8</v>
       </c>
-      <c r="G23" s="36" t="s">
-        <v>167</v>
+      <c r="G23" s="37" t="s">
+        <v>168</v>
       </c>
       <c r="H23" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25" customFormat="1" s="4">
-      <c r="A24" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="B24" s="34" t="s">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="42.75" customFormat="1" s="4">
+      <c r="A24" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="B24" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="C24" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="D24" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="F24" s="35">
+      <c r="E24" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24" s="36">
         <v>7</v>
       </c>
-      <c r="G24" s="36" t="s">
-        <v>173</v>
+      <c r="G24" s="37" t="s">
+        <v>174</v>
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25" customFormat="1" s="4">
-      <c r="A25" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="B25" s="34" t="s">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="42.75" customFormat="1" s="4">
+      <c r="A25" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="B25" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="C25" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="D25" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="F25" s="35">
+      <c r="E25" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="F25" s="36">
         <v>8</v>
       </c>
-      <c r="G25" s="36" t="s">
-        <v>179</v>
+      <c r="G25" s="37" t="s">
+        <v>180</v>
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25" customFormat="1" s="4">
-      <c r="A26" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="B26" s="37" t="s">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="43.5" customFormat="1" s="4">
+      <c r="A26" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="B26" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="C26" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="D26" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="F26" s="38">
+      <c r="E26" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="39">
         <v>6</v>
       </c>
-      <c r="G26" s="39" t="s">
-        <v>185</v>
+      <c r="G26" s="40" t="s">
+        <v>186</v>
       </c>
       <c r="H26" s="9"/>
     </row>
@@ -2045,7 +2069,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
       <c r="C12" s="9"/>
